--- a/TemperatureData/N.IndianBrook03/1203_2024.xlsx
+++ b/TemperatureData/N.IndianBrook03/1203_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice.sharepoint.com/sites/TeamMosher/Shared Documents/General/People/Scott, Reed/VTADS/HoboLoggerData/N.IndianBrook-3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitrepos\VTADS\TemperatureData\N.IndianBrook03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8294089A-836E-4694-8612-FD755DF458C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEF7C9D-BEE2-4BF5-AE52-F7545D6D3DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{0E30BCE6-9F8E-4742-B823-029BB136505D}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{0E30BCE6-9F8E-4742-B823-029BB136505D}"/>
   </bookViews>
   <sheets>
     <sheet name="1203_2024" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Plot Title: Indian Brook-3</t>
   </si>
@@ -50,9 +50,6 @@
     <t>End Of File (LGR S/N: 21422113)</t>
   </si>
   <si>
-    <t>Logged</t>
-  </si>
-  <si>
     <t># N. Indian Brook -3</t>
   </si>
   <si>
@@ -66,6 +63,9 @@
   </si>
   <si>
     <t># Logger was collected on 08/06/2024 at 9:03</t>
+  </si>
+  <si>
+    <t>#All data after retreival date/time was deleted</t>
   </si>
 </sst>
 </file>
@@ -927,9 +927,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF4E9620-B5A3-4E68-B162-6772C1A312AA}">
-  <dimension ref="A1:H5684"/>
+  <dimension ref="A1:H5655"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5643" workbookViewId="0">
+      <selection activeCell="B5649" sqref="B5649"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -80109,406 +80111,6 @@
         <v>512</v>
       </c>
     </row>
-    <row r="5656" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5656">
-        <v>5654</v>
-      </c>
-      <c r="B5656" s="1">
-        <v>45510.385416666664</v>
-      </c>
-      <c r="C5656">
-        <v>70.823999999999998</v>
-      </c>
-      <c r="D5656">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5657" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5657">
-        <v>5655</v>
-      </c>
-      <c r="B5657" s="1">
-        <v>45510.395833333336</v>
-      </c>
-      <c r="C5657">
-        <v>70.823999999999998</v>
-      </c>
-      <c r="D5657">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5658" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5658">
-        <v>5656</v>
-      </c>
-      <c r="B5658" s="1">
-        <v>45510.40625</v>
-      </c>
-      <c r="C5658">
-        <v>69.793000000000006</v>
-      </c>
-      <c r="D5658">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5659" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5659">
-        <v>5657</v>
-      </c>
-      <c r="B5659" s="1">
-        <v>45510.416666666664</v>
-      </c>
-      <c r="C5659">
-        <v>69.448999999999998</v>
-      </c>
-      <c r="D5659">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5660" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5660">
-        <v>5658</v>
-      </c>
-      <c r="B5660" s="1">
-        <v>45510.427083333336</v>
-      </c>
-      <c r="C5660">
-        <v>69.622</v>
-      </c>
-      <c r="D5660">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5661" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5661">
-        <v>5659</v>
-      </c>
-      <c r="B5661" s="1">
-        <v>45510.4375</v>
-      </c>
-      <c r="C5661">
-        <v>71.512</v>
-      </c>
-      <c r="D5661">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5662" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5662">
-        <v>5660</v>
-      </c>
-      <c r="B5662" s="1">
-        <v>45510.447916666664</v>
-      </c>
-      <c r="C5662">
-        <v>72.891000000000005</v>
-      </c>
-      <c r="D5662">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5663" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5663">
-        <v>5661</v>
-      </c>
-      <c r="B5663" s="1">
-        <v>45510.458333333336</v>
-      </c>
-      <c r="C5663">
-        <v>73.58</v>
-      </c>
-      <c r="D5663">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="5664" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5664">
-        <v>5662</v>
-      </c>
-      <c r="B5664" s="1">
-        <v>45510.46875</v>
-      </c>
-      <c r="C5664">
-        <v>71.512</v>
-      </c>
-      <c r="D5664">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5665" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5665">
-        <v>5663</v>
-      </c>
-      <c r="B5665" s="1">
-        <v>45510.479166666664</v>
-      </c>
-      <c r="C5665">
-        <v>69.793000000000006</v>
-      </c>
-      <c r="D5665">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5666" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5666">
-        <v>5664</v>
-      </c>
-      <c r="B5666" s="1">
-        <v>45510.489583333336</v>
-      </c>
-      <c r="C5666">
-        <v>70.137</v>
-      </c>
-      <c r="D5666">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5667" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5667">
-        <v>5665</v>
-      </c>
-      <c r="B5667" s="1">
-        <v>45510.5</v>
-      </c>
-      <c r="C5667">
-        <v>71.338999999999999</v>
-      </c>
-      <c r="D5667">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5668" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5668">
-        <v>5666</v>
-      </c>
-      <c r="B5668" s="1">
-        <v>45510.510416666664</v>
-      </c>
-      <c r="C5668">
-        <v>72.718000000000004</v>
-      </c>
-      <c r="D5668">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5669" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5669">
-        <v>5667</v>
-      </c>
-      <c r="B5669" s="1">
-        <v>45510.520833333336</v>
-      </c>
-      <c r="C5669">
-        <v>69.622</v>
-      </c>
-      <c r="D5669">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5670" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5670">
-        <v>5668</v>
-      </c>
-      <c r="B5670" s="1">
-        <v>45510.53125</v>
-      </c>
-      <c r="C5670">
-        <v>68.076999999999998</v>
-      </c>
-      <c r="D5670">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5671" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5671">
-        <v>5669</v>
-      </c>
-      <c r="B5671" s="1">
-        <v>45510.541666666664</v>
-      </c>
-      <c r="C5671">
-        <v>67.563999999999993</v>
-      </c>
-      <c r="D5671">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5672" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5672">
-        <v>5670</v>
-      </c>
-      <c r="B5672" s="1">
-        <v>45510.552083333336</v>
-      </c>
-      <c r="C5672">
-        <v>67.563999999999993</v>
-      </c>
-      <c r="D5672">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5673" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5673">
-        <v>5671</v>
-      </c>
-      <c r="B5673" s="1">
-        <v>45510.5625</v>
-      </c>
-      <c r="C5673">
-        <v>67.563999999999993</v>
-      </c>
-      <c r="D5673">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5674" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5674">
-        <v>5672</v>
-      </c>
-      <c r="B5674" s="1">
-        <v>45510.572916666664</v>
-      </c>
-      <c r="C5674">
-        <v>67.563999999999993</v>
-      </c>
-      <c r="D5674">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5675" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5675">
-        <v>5673</v>
-      </c>
-      <c r="B5675" s="1">
-        <v>45510.583333333336</v>
-      </c>
-      <c r="C5675">
-        <v>67.563999999999993</v>
-      </c>
-      <c r="D5675">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5676" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5676">
-        <v>5674</v>
-      </c>
-      <c r="B5676" s="1">
-        <v>45510.59375</v>
-      </c>
-      <c r="C5676">
-        <v>67.391999999999996</v>
-      </c>
-      <c r="D5676">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5677" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5677">
-        <v>5675</v>
-      </c>
-      <c r="B5677" s="1">
-        <v>45510.604166666664</v>
-      </c>
-      <c r="C5677">
-        <v>67.906000000000006</v>
-      </c>
-      <c r="D5677">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5678" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5678">
-        <v>5676</v>
-      </c>
-      <c r="B5678" s="1">
-        <v>45510.614583333336</v>
-      </c>
-      <c r="C5678">
-        <v>69.106999999999999</v>
-      </c>
-      <c r="D5678">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5679" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5679">
-        <v>5677</v>
-      </c>
-      <c r="B5679" s="1">
-        <v>45510.625</v>
-      </c>
-      <c r="C5679">
-        <v>68.763000000000005</v>
-      </c>
-      <c r="D5679">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5680" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5680">
-        <v>5678</v>
-      </c>
-      <c r="B5680" s="1">
-        <v>45510.635416666664</v>
-      </c>
-      <c r="C5680">
-        <v>69.448999999999998</v>
-      </c>
-      <c r="D5680">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5681" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5681">
-        <v>5679</v>
-      </c>
-      <c r="B5681" s="1">
-        <v>45510.645833333336</v>
-      </c>
-      <c r="C5681">
-        <v>70.48</v>
-      </c>
-      <c r="D5681">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5682" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5682">
-        <v>5680</v>
-      </c>
-      <c r="B5682" s="1">
-        <v>45510.646539351852</v>
-      </c>
-      <c r="E5682" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5683" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5683">
-        <v>5681</v>
-      </c>
-      <c r="B5683" s="1">
-        <v>45510.647129629629</v>
-      </c>
-      <c r="F5683" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5684" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5684">
-        <v>5682</v>
-      </c>
-      <c r="B5684" s="1">
-        <v>45510.647326388891</v>
-      </c>
-      <c r="G5684" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5684" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -80516,9 +80118,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F49EF14-CB54-4D5B-A603-0119ACAF74D0}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -80526,26 +80128,31 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -80782,15 +80389,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="94106a43-364c-4431-a764-9e3dd608a139" xsi:nil="true"/>
@@ -80801,14 +80399,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8377DB4F-39EB-4367-B99E-02010404EA07}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8377DB4F-39EB-4367-B99E-02010404EA07}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6f61aad6-7023-4354-b4be-ac6efb5d4555"/>
+    <ds:schemaRef ds:uri="94106a43-364c-4431-a764-9e3dd608a139"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A910D36-9BAE-49CD-80D6-F97678272F05}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0D06FD1-0B5D-45A1-B842-6D4ACD31B256}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="94106a43-364c-4431-a764-9e3dd608a139"/>
+    <ds:schemaRef ds:uri="6f61aad6-7023-4354-b4be-ac6efb5d4555"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0D06FD1-0B5D-45A1-B842-6D4ACD31B256}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A910D36-9BAE-49CD-80D6-F97678272F05}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>